--- a/Demo_Selenium/src/test/resources/Test04.xlsx
+++ b/Demo_Selenium/src/test/resources/Test04.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Pass</t>
   </si>

--- a/Demo_Selenium/src/test/resources/Test04.xlsx
+++ b/Demo_Selenium/src/test/resources/Test04.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>Pass</t>
   </si>
